--- a/2.Design/Template/Thong_tin_chi_tiet_hang_ton_kho_all.xlsx
+++ b/2.Design/Template/Thong_tin_chi_tiet_hang_ton_kho_all.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D61C2E-200C-436E-946D-41EC926CE83C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0BA77D-DA48-43EF-80C8-E490B245482A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>STT</t>
   </si>
@@ -134,6 +134,30 @@
   </si>
   <si>
     <t>${item.partnerCode}</t>
+  </si>
+  <si>
+    <t>Vị trí</t>
+  </si>
+  <si>
+    <t>Ngày sản xuất</t>
+  </si>
+  <si>
+    <t>Hạn sử dụng</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>${item.cellCode}</t>
+  </si>
+  <si>
+    <t>${item.produceDate}</t>
+  </si>
+  <si>
+    <t>${item.expireDate}</t>
+  </si>
+  <si>
+    <t>${item.description}</t>
   </si>
 </sst>
 </file>
@@ -206,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -249,6 +273,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -551,10 +578,10 @@
     <col min="12" max="12" width="11.1796875" style="4" customWidth="1"/>
     <col min="13" max="13" width="11" style="3" customWidth="1"/>
     <col min="14" max="15" width="9.54296875" style="3" customWidth="1"/>
-    <col min="16" max="17" width="11.7265625" style="3" customWidth="1"/>
+    <col min="16" max="21" width="11.7265625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
@@ -574,8 +601,12 @@
       <c r="O1" s="13"/>
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
     </row>
-    <row r="2" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>18</v>
       </c>
@@ -595,8 +626,12 @@
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
       <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -614,8 +649,12 @@
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
     </row>
-    <row r="4" spans="1:17" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -665,10 +704,22 @@
         <v>5</v>
       </c>
       <c r="Q4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -688,8 +739,12 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -739,10 +794,22 @@
         <v>15</v>
       </c>
       <c r="Q6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="U6" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -762,11 +829,15 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2.Design/Template/Thong_tin_chi_tiet_hang_ton_kho_all.xlsx
+++ b/2.Design/Template/Thong_tin_chi_tiet_hang_ton_kho_all.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0BA77D-DA48-43EF-80C8-E490B245482A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395740CA-4487-4EBF-B306-D3907C977933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -265,6 +265,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -273,9 +276,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -569,7 +569,7 @@
     <col min="2" max="2" width="13.36328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.26953125" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.08984375" style="3" customWidth="1"/>
     <col min="7" max="7" width="26.54296875" style="3" customWidth="1"/>
     <col min="8" max="8" width="10.26953125" style="3" customWidth="1"/>
@@ -582,54 +582,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
     </row>
     <row r="2" spans="1:21" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3"/>
@@ -802,7 +802,7 @@
       <c r="S6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="T6" s="12" t="s">
         <v>45</v>
       </c>
       <c r="U6" s="5" t="s">

--- a/2.Design/Template/Thong_tin_chi_tiet_hang_ton_kho_all.xlsx
+++ b/2.Design/Template/Thong_tin_chi_tiet_hang_ton_kho_all.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395740CA-4487-4EBF-B306-D3907C977933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD01ADBC-31EF-4FC4-9F02-C3E502CF1400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -58,9 +64,6 @@
     <t>${item.goodsName}</t>
   </si>
   <si>
-    <t>${item.amountValue}</t>
-  </si>
-  <si>
     <t>${item.serial}</t>
   </si>
   <si>
@@ -70,9 +73,6 @@
     <t>${item.importDate}</t>
   </si>
   <si>
-    <t>${item.inputPriceValue}</t>
-  </si>
-  <si>
     <t>Đơn vị tính</t>
   </si>
   <si>
@@ -91,12 +91,6 @@
     <t>Thể tích(m3)</t>
   </si>
   <si>
-    <t>${item.weight}</t>
-  </si>
-  <si>
-    <t>${item.volume}</t>
-  </si>
-  <si>
     <t>Tình trạng hàng hóa</t>
   </si>
   <si>
@@ -130,9 +124,6 @@
     <t>Tổng tiền</t>
   </si>
   <si>
-    <t>${item.totalMoney}</t>
-  </si>
-  <si>
     <t>${item.partnerCode}</t>
   </si>
   <si>
@@ -158,6 +149,21 @@
   </si>
   <si>
     <t>${item.description}</t>
+  </si>
+  <si>
+    <t>${item.amountValueReport}</t>
+  </si>
+  <si>
+    <t>${item.inputPriceValueReport}</t>
+  </si>
+  <si>
+    <t>${item.totalMoneyReport}</t>
+  </si>
+  <si>
+    <t>${item.weightReport}</t>
+  </si>
+  <si>
+    <t>${item.volumeReport}</t>
   </si>
 </sst>
 </file>
@@ -230,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -257,9 +263,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -276,6 +279,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -569,67 +584,67 @@
     <col min="2" max="2" width="13.36328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.26953125" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.08984375" style="3" customWidth="1"/>
     <col min="7" max="7" width="26.54296875" style="3" customWidth="1"/>
     <col min="8" max="8" width="10.26953125" style="3" customWidth="1"/>
     <col min="9" max="9" width="13.26953125" style="3" customWidth="1"/>
     <col min="10" max="11" width="8.08984375" style="3" customWidth="1"/>
     <col min="12" max="12" width="11.1796875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="11" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.6328125" style="3" customWidth="1"/>
     <col min="14" max="15" width="9.54296875" style="3" customWidth="1"/>
     <col min="16" max="21" width="11.7265625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
+      <c r="A1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
     </row>
     <row r="2" spans="1:21" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
+      <c r="A2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3"/>
@@ -659,16 +674,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>1</v>
@@ -679,44 +694,44 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>25</v>
+      <c r="I4" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>17</v>
+      <c r="K4" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>30</v>
+      <c r="T4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -749,16 +764,16 @@
         <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>10</v>
@@ -767,46 +782,46 @@
         <v>11</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="Q6" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">

--- a/2.Design/Template/Thong_tin_chi_tiet_hang_ton_kho_all.xlsx
+++ b/2.Design/Template/Thong_tin_chi_tiet_hang_ton_kho_all.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD01ADBC-31EF-4FC4-9F02-C3E502CF1400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483A23BD-42C7-4634-951B-6B460BAE87C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>STT</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>${item.volumeReport}</t>
+  </si>
+  <si>
+    <t>Nguồn gốc</t>
+  </si>
+  <si>
+    <t>${item.content}</t>
   </si>
 </sst>
 </file>
@@ -271,6 +277,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -279,18 +297,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -593,60 +599,62 @@
     <col min="12" max="12" width="11.1796875" style="4" customWidth="1"/>
     <col min="13" max="13" width="13.6328125" style="3" customWidth="1"/>
     <col min="14" max="15" width="9.54296875" style="3" customWidth="1"/>
-    <col min="16" max="21" width="11.7265625" style="3" customWidth="1"/>
+    <col min="16" max="22" width="11.7265625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:22" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:21" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -668,8 +676,9 @@
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
+      <c r="V3"/>
     </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -716,25 +725,28 @@
         <v>20</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="T4" s="10" t="s">
         <v>36</v>
       </c>
       <c r="U4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -758,8 +770,9 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -787,44 +800,47 @@
       <c r="I6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="12" t="s">
         <v>41</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="18" t="s">
-        <v>14</v>
+      <c r="P6" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="T6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="V6" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -848,11 +864,12 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:V2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
